--- a/punto/archivos/Inventario_Productos.xlsx
+++ b/punto/archivos/Inventario_Productos.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema-pos\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.2\Alyvan\punto\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3BD72-4964-4043-A673-3A407DADD0D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C51BC1-5063-4EB9-9E0A-AC6B4794E515}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C8D0EC74-BCDF-4908-909D-75F5D97CA04B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6180" activeTab="1" xr2:uid="{C8D0EC74-BCDF-4908-909D-75F5D97CA04B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Productos" sheetId="1" r:id="rId1"/>
+    <sheet name="Categorias" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Productos!$A$1:$K$97</definedName>
     <definedName name="categorias">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4267,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D1EE0C-C425-4244-8D49-73DCB1BC7486}">
   <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+    <sheetView topLeftCell="A291" workbookViewId="0">
       <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
@@ -4352,11 +4343,11 @@
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:K21" ca="1" si="1">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4390,11 +4381,11 @@
       </c>
       <c r="J3" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4428,11 +4419,11 @@
       </c>
       <c r="J4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4466,11 +4457,11 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,11 +4495,11 @@
       </c>
       <c r="J6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4542,11 +4533,11 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4580,11 +4571,11 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4618,11 +4609,11 @@
       </c>
       <c r="J9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4656,11 +4647,11 @@
       </c>
       <c r="J10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4694,11 +4685,11 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4732,11 +4723,11 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4770,11 +4761,11 @@
       </c>
       <c r="J13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4808,11 +4799,11 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4846,11 +4837,11 @@
       </c>
       <c r="J15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4884,11 +4875,11 @@
       </c>
       <c r="J16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4922,11 +4913,11 @@
       </c>
       <c r="J17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4960,11 +4951,11 @@
       </c>
       <c r="J18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4998,11 +4989,11 @@
       </c>
       <c r="J19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5036,11 +5027,11 @@
       </c>
       <c r="J20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5074,11 +5065,11 @@
       </c>
       <c r="J21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5112,11 +5103,11 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" ref="J22:K41" ca="1" si="2">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5150,11 +5141,11 @@
       </c>
       <c r="J23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5188,11 +5179,11 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5226,11 +5217,11 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5264,11 +5255,11 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5302,11 +5293,11 @@
       </c>
       <c r="J27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5340,11 +5331,11 @@
       </c>
       <c r="J28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5378,11 +5369,11 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5416,11 +5407,11 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5454,11 +5445,11 @@
       </c>
       <c r="J31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5492,11 +5483,11 @@
       </c>
       <c r="J32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5530,11 +5521,11 @@
       </c>
       <c r="J33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5568,11 +5559,11 @@
       </c>
       <c r="J34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5606,11 +5597,11 @@
       </c>
       <c r="J35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -5644,11 +5635,11 @@
       </c>
       <c r="J36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5682,11 +5673,11 @@
       </c>
       <c r="J37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5720,11 +5711,11 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5758,11 +5749,11 @@
       </c>
       <c r="J39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5796,11 +5787,11 @@
       </c>
       <c r="J40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5834,11 +5825,11 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5872,11 +5863,11 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" ref="J42:K61" ca="1" si="4">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5910,11 +5901,11 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -5948,11 +5939,11 @@
       </c>
       <c r="J44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -5986,11 +5977,11 @@
       </c>
       <c r="J45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -6024,11 +6015,11 @@
       </c>
       <c r="J46" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K46" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -6062,11 +6053,11 @@
       </c>
       <c r="J47" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K47" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -6100,11 +6091,11 @@
       </c>
       <c r="J48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -6138,11 +6129,11 @@
       </c>
       <c r="J49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -6176,11 +6167,11 @@
       </c>
       <c r="J50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -6214,11 +6205,11 @@
       </c>
       <c r="J51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -6252,11 +6243,11 @@
       </c>
       <c r="J52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -6290,11 +6281,11 @@
       </c>
       <c r="J53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -6328,11 +6319,11 @@
       </c>
       <c r="J54" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K54" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -6366,11 +6357,11 @@
       </c>
       <c r="J55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -6404,11 +6395,11 @@
       </c>
       <c r="J56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -6442,11 +6433,11 @@
       </c>
       <c r="J57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -6480,11 +6471,11 @@
       </c>
       <c r="J58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -6518,11 +6509,11 @@
       </c>
       <c r="J59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -6556,11 +6547,11 @@
       </c>
       <c r="J60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -6594,11 +6585,11 @@
       </c>
       <c r="J61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -6632,11 +6623,11 @@
       </c>
       <c r="J62" s="10">
         <f t="shared" ref="J62:K81" ca="1" si="5">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K62" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -6670,11 +6661,11 @@
       </c>
       <c r="J63" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K63" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -6708,11 +6699,11 @@
       </c>
       <c r="J64" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K64" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -6746,11 +6737,11 @@
       </c>
       <c r="J65" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K65" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -6784,11 +6775,11 @@
       </c>
       <c r="J66" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K66" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -6822,11 +6813,11 @@
       </c>
       <c r="J67" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K67" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -6860,11 +6851,11 @@
       </c>
       <c r="J68" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K68" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -6898,11 +6889,11 @@
       </c>
       <c r="J69" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K69" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -6936,11 +6927,11 @@
       </c>
       <c r="J70" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K70" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -6974,11 +6965,11 @@
       </c>
       <c r="J71" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K71" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -7012,11 +7003,11 @@
       </c>
       <c r="J72" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K72" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -7050,11 +7041,11 @@
       </c>
       <c r="J73" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K73" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -7088,11 +7079,11 @@
       </c>
       <c r="J74" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K74" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -7126,11 +7117,11 @@
       </c>
       <c r="J75" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K75" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -7164,11 +7155,11 @@
       </c>
       <c r="J76" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K76" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -7202,11 +7193,11 @@
       </c>
       <c r="J77" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K77" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -7240,11 +7231,11 @@
       </c>
       <c r="J78" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K78" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -7278,11 +7269,11 @@
       </c>
       <c r="J79" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K79" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -7316,11 +7307,11 @@
       </c>
       <c r="J80" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K80" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -7354,11 +7345,11 @@
       </c>
       <c r="J81" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K81" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -7392,11 +7383,11 @@
       </c>
       <c r="J82" s="10">
         <f t="shared" ref="J82:K97" ca="1" si="7">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K82" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -7430,11 +7421,11 @@
       </c>
       <c r="J83" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K83" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -7468,11 +7459,11 @@
       </c>
       <c r="J84" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K84" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -7506,11 +7497,11 @@
       </c>
       <c r="J85" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K85" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -7544,11 +7535,11 @@
       </c>
       <c r="J86" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K86" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -7582,11 +7573,11 @@
       </c>
       <c r="J87" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K87" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -7620,11 +7611,11 @@
       </c>
       <c r="J88" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K88" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -7658,11 +7649,11 @@
       </c>
       <c r="J89" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K89" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -7696,11 +7687,11 @@
       </c>
       <c r="J90" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K90" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -7734,11 +7725,11 @@
       </c>
       <c r="J91" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K91" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -7772,11 +7763,11 @@
       </c>
       <c r="J92" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K92" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -7810,11 +7801,11 @@
       </c>
       <c r="J93" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K93" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -7848,11 +7839,11 @@
       </c>
       <c r="J94" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K94" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -7886,11 +7877,11 @@
       </c>
       <c r="J95" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K95" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -7924,11 +7915,11 @@
       </c>
       <c r="J96" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K96" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -7962,11 +7953,11 @@
       </c>
       <c r="J97" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K97" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -8000,11 +7991,11 @@
       </c>
       <c r="J98" s="10">
         <f t="shared" ref="J98:K117" ca="1" si="8">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K98" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -8038,11 +8029,11 @@
       </c>
       <c r="J99" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K99" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -8076,11 +8067,11 @@
       </c>
       <c r="J100" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K100" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -8114,11 +8105,11 @@
       </c>
       <c r="J101" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K101" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -8152,11 +8143,11 @@
       </c>
       <c r="J102" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K102" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -8190,11 +8181,11 @@
       </c>
       <c r="J103" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K103" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -8228,11 +8219,11 @@
       </c>
       <c r="J104" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K104" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -8266,11 +8257,11 @@
       </c>
       <c r="J105" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K105" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -8304,11 +8295,11 @@
       </c>
       <c r="J106" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K106" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -8342,11 +8333,11 @@
       </c>
       <c r="J107" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K107" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -8380,11 +8371,11 @@
       </c>
       <c r="J108" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K108" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -8418,11 +8409,11 @@
       </c>
       <c r="J109" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K109" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -8456,11 +8447,11 @@
       </c>
       <c r="J110" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K110" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -8494,11 +8485,11 @@
       </c>
       <c r="J111" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K111" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -8532,11 +8523,11 @@
       </c>
       <c r="J112" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K112" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -8570,11 +8561,11 @@
       </c>
       <c r="J113" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K113" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -8608,11 +8599,11 @@
       </c>
       <c r="J114" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K114" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -8646,11 +8637,11 @@
       </c>
       <c r="J115" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K115" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -8684,11 +8675,11 @@
       </c>
       <c r="J116" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K116" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -8722,11 +8713,11 @@
       </c>
       <c r="J117" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K117" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -8760,11 +8751,11 @@
       </c>
       <c r="J118" s="10">
         <f t="shared" ref="J118:K137" ca="1" si="9">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K118" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -8798,11 +8789,11 @@
       </c>
       <c r="J119" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K119" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -8836,11 +8827,11 @@
       </c>
       <c r="J120" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K120" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -8874,11 +8865,11 @@
       </c>
       <c r="J121" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K121" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -8912,11 +8903,11 @@
       </c>
       <c r="J122" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K122" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -8950,11 +8941,11 @@
       </c>
       <c r="J123" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K123" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -8988,11 +8979,11 @@
       </c>
       <c r="J124" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K124" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -9026,11 +9017,11 @@
       </c>
       <c r="J125" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K125" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -9064,11 +9055,11 @@
       </c>
       <c r="J126" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K126" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -9102,11 +9093,11 @@
       </c>
       <c r="J127" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K127" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -9140,11 +9131,11 @@
       </c>
       <c r="J128" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K128" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -9178,11 +9169,11 @@
       </c>
       <c r="J129" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K129" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -9216,11 +9207,11 @@
       </c>
       <c r="J130" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K130" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -9254,11 +9245,11 @@
       </c>
       <c r="J131" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K131" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -9292,11 +9283,11 @@
       </c>
       <c r="J132" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K132" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -9330,11 +9321,11 @@
       </c>
       <c r="J133" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K133" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -9368,11 +9359,11 @@
       </c>
       <c r="J134" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K134" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -9406,11 +9397,11 @@
       </c>
       <c r="J135" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K135" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -9444,11 +9435,11 @@
       </c>
       <c r="J136" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K136" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -9482,11 +9473,11 @@
       </c>
       <c r="J137" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K137" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -9520,11 +9511,11 @@
       </c>
       <c r="J138" s="10">
         <f t="shared" ref="J138:K157" ca="1" si="11">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K138" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -9558,11 +9549,11 @@
       </c>
       <c r="J139" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K139" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -9596,11 +9587,11 @@
       </c>
       <c r="J140" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K140" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -9634,11 +9625,11 @@
       </c>
       <c r="J141" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K141" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -9672,11 +9663,11 @@
       </c>
       <c r="J142" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K142" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -9710,11 +9701,11 @@
       </c>
       <c r="J143" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K143" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -9748,11 +9739,11 @@
       </c>
       <c r="J144" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K144" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -9786,11 +9777,11 @@
       </c>
       <c r="J145" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K145" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -9824,11 +9815,11 @@
       </c>
       <c r="J146" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K146" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -9862,11 +9853,11 @@
       </c>
       <c r="J147" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K147" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -9900,11 +9891,11 @@
       </c>
       <c r="J148" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K148" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -9938,11 +9929,11 @@
       </c>
       <c r="J149" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K149" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -9976,11 +9967,11 @@
       </c>
       <c r="J150" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K150" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -10014,11 +10005,11 @@
       </c>
       <c r="J151" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K151" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -10052,11 +10043,11 @@
       </c>
       <c r="J152" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K152" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -10090,11 +10081,11 @@
       </c>
       <c r="J153" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K153" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -10128,11 +10119,11 @@
       </c>
       <c r="J154" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K154" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -10166,11 +10157,11 @@
       </c>
       <c r="J155" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K155" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -10204,11 +10195,11 @@
       </c>
       <c r="J156" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K156" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -10242,11 +10233,11 @@
       </c>
       <c r="J157" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K157" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -10280,11 +10271,11 @@
       </c>
       <c r="J158" s="10">
         <f t="shared" ref="J158:K177" ca="1" si="12">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K158" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -10318,11 +10309,11 @@
       </c>
       <c r="J159" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K159" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -10356,11 +10347,11 @@
       </c>
       <c r="J160" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K160" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -10394,11 +10385,11 @@
       </c>
       <c r="J161" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K161" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -10432,11 +10423,11 @@
       </c>
       <c r="J162" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K162" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -10470,11 +10461,11 @@
       </c>
       <c r="J163" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K163" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -10508,11 +10499,11 @@
       </c>
       <c r="J164" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K164" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -10546,11 +10537,11 @@
       </c>
       <c r="J165" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K165" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -10584,11 +10575,11 @@
       </c>
       <c r="J166" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K166" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -10622,11 +10613,11 @@
       </c>
       <c r="J167" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K167" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -10660,11 +10651,11 @@
       </c>
       <c r="J168" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K168" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -10698,11 +10689,11 @@
       </c>
       <c r="J169" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K169" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -10736,11 +10727,11 @@
       </c>
       <c r="J170" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K170" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -10774,11 +10765,11 @@
       </c>
       <c r="J171" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K171" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -10812,11 +10803,11 @@
       </c>
       <c r="J172" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K172" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -10850,11 +10841,11 @@
       </c>
       <c r="J173" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K173" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -10888,11 +10879,11 @@
       </c>
       <c r="J174" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K174" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -10926,11 +10917,11 @@
       </c>
       <c r="J175" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K175" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -10964,11 +10955,11 @@
       </c>
       <c r="J176" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K176" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -11002,11 +10993,11 @@
       </c>
       <c r="J177" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K177" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -11040,11 +11031,11 @@
       </c>
       <c r="J178" s="10">
         <f t="shared" ref="J178:K193" ca="1" si="13">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K178" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -11078,11 +11069,11 @@
       </c>
       <c r="J179" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K179" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -11116,11 +11107,11 @@
       </c>
       <c r="J180" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K180" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -11154,11 +11145,11 @@
       </c>
       <c r="J181" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K181" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -11192,11 +11183,11 @@
       </c>
       <c r="J182" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K182" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -11230,11 +11221,11 @@
       </c>
       <c r="J183" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K183" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -11268,11 +11259,11 @@
       </c>
       <c r="J184" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K184" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -11306,11 +11297,11 @@
       </c>
       <c r="J185" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K185" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -11344,11 +11335,11 @@
       </c>
       <c r="J186" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K186" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -11382,11 +11373,11 @@
       </c>
       <c r="J187" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K187" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -11420,11 +11411,11 @@
       </c>
       <c r="J188" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K188" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -11458,11 +11449,11 @@
       </c>
       <c r="J189" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K189" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -11496,11 +11487,11 @@
       </c>
       <c r="J190" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K190" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -11534,11 +11525,11 @@
       </c>
       <c r="J191" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K191" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -11572,11 +11563,11 @@
       </c>
       <c r="J192" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K192" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -11610,11 +11601,11 @@
       </c>
       <c r="J193" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K193" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -11648,11 +11639,11 @@
       </c>
       <c r="J194" s="10">
         <f t="shared" ref="J194:K213" ca="1" si="15">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K194" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -11686,11 +11677,11 @@
       </c>
       <c r="J195" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K195" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -11724,11 +11715,11 @@
       </c>
       <c r="J196" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K196" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -11762,11 +11753,11 @@
       </c>
       <c r="J197" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K197" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -11800,11 +11791,11 @@
       </c>
       <c r="J198" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K198" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -11838,11 +11829,11 @@
       </c>
       <c r="J199" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K199" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -11876,11 +11867,11 @@
       </c>
       <c r="J200" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K200" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -11914,11 +11905,11 @@
       </c>
       <c r="J201" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K201" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -11952,11 +11943,11 @@
       </c>
       <c r="J202" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K202" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -11990,11 +11981,11 @@
       </c>
       <c r="J203" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K203" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -12028,11 +12019,11 @@
       </c>
       <c r="J204" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K204" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -12066,11 +12057,11 @@
       </c>
       <c r="J205" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K205" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -12104,11 +12095,11 @@
       </c>
       <c r="J206" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K206" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -12142,11 +12133,11 @@
       </c>
       <c r="J207" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K207" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -12180,11 +12171,11 @@
       </c>
       <c r="J208" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K208" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -12218,11 +12209,11 @@
       </c>
       <c r="J209" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K209" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -12256,11 +12247,11 @@
       </c>
       <c r="J210" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K210" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -12294,11 +12285,11 @@
       </c>
       <c r="J211" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K211" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -12332,11 +12323,11 @@
       </c>
       <c r="J212" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K212" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -12370,11 +12361,11 @@
       </c>
       <c r="J213" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K213" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -12408,11 +12399,11 @@
       </c>
       <c r="J214" s="10">
         <f t="shared" ref="J214:K233" ca="1" si="16">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K214" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -12446,11 +12437,11 @@
       </c>
       <c r="J215" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K215" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -12484,11 +12475,11 @@
       </c>
       <c r="J216" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K216" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -12522,11 +12513,11 @@
       </c>
       <c r="J217" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K217" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -12560,11 +12551,11 @@
       </c>
       <c r="J218" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K218" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -12598,11 +12589,11 @@
       </c>
       <c r="J219" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K219" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -12636,11 +12627,11 @@
       </c>
       <c r="J220" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K220" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -12674,11 +12665,11 @@
       </c>
       <c r="J221" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K221" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -12712,11 +12703,11 @@
       </c>
       <c r="J222" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K222" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -12750,11 +12741,11 @@
       </c>
       <c r="J223" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K223" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -12788,11 +12779,11 @@
       </c>
       <c r="J224" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K224" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -12826,11 +12817,11 @@
       </c>
       <c r="J225" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K225" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -12864,11 +12855,11 @@
       </c>
       <c r="J226" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K226" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -12902,11 +12893,11 @@
       </c>
       <c r="J227" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K227" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -12940,11 +12931,11 @@
       </c>
       <c r="J228" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K228" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -12978,11 +12969,11 @@
       </c>
       <c r="J229" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K229" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -13016,11 +13007,11 @@
       </c>
       <c r="J230" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K230" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -13054,11 +13045,11 @@
       </c>
       <c r="J231" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K231" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -13092,11 +13083,11 @@
       </c>
       <c r="J232" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K232" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -13130,11 +13121,11 @@
       </c>
       <c r="J233" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K233" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -13168,11 +13159,11 @@
       </c>
       <c r="J234" s="10">
         <f t="shared" ref="J234:K253" ca="1" si="17">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K234" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -13206,11 +13197,11 @@
       </c>
       <c r="J235" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K235" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -13244,11 +13235,11 @@
       </c>
       <c r="J236" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K236" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -13282,11 +13273,11 @@
       </c>
       <c r="J237" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K237" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -13320,11 +13311,11 @@
       </c>
       <c r="J238" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K238" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -13358,11 +13349,11 @@
       </c>
       <c r="J239" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K239" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -13396,11 +13387,11 @@
       </c>
       <c r="J240" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K240" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -13434,11 +13425,11 @@
       </c>
       <c r="J241" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K241" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -13472,11 +13463,11 @@
       </c>
       <c r="J242" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K242" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -13510,11 +13501,11 @@
       </c>
       <c r="J243" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K243" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -13548,11 +13539,11 @@
       </c>
       <c r="J244" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K244" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -13586,11 +13577,11 @@
       </c>
       <c r="J245" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K245" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -13624,11 +13615,11 @@
       </c>
       <c r="J246" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K246" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -13662,11 +13653,11 @@
       </c>
       <c r="J247" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K247" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -13700,11 +13691,11 @@
       </c>
       <c r="J248" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K248" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -13738,11 +13729,11 @@
       </c>
       <c r="J249" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K249" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -13776,11 +13767,11 @@
       </c>
       <c r="J250" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K250" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -13814,11 +13805,11 @@
       </c>
       <c r="J251" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K251" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -13852,11 +13843,11 @@
       </c>
       <c r="J252" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K252" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -13890,11 +13881,11 @@
       </c>
       <c r="J253" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K253" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -13928,11 +13919,11 @@
       </c>
       <c r="J254" s="10">
         <f t="shared" ref="J254:K273" ca="1" si="18">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K254" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -13966,11 +13957,11 @@
       </c>
       <c r="J255" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K255" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -14004,11 +13995,11 @@
       </c>
       <c r="J256" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K256" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -14042,11 +14033,11 @@
       </c>
       <c r="J257" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K257" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -14080,11 +14071,11 @@
       </c>
       <c r="J258" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K258" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -14118,11 +14109,11 @@
       </c>
       <c r="J259" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K259" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -14156,11 +14147,11 @@
       </c>
       <c r="J260" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K260" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -14194,11 +14185,11 @@
       </c>
       <c r="J261" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K261" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -14232,11 +14223,11 @@
       </c>
       <c r="J262" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K262" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -14270,11 +14261,11 @@
       </c>
       <c r="J263" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K263" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -14308,11 +14299,11 @@
       </c>
       <c r="J264" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K264" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -14346,11 +14337,11 @@
       </c>
       <c r="J265" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K265" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -14384,11 +14375,11 @@
       </c>
       <c r="J266" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K266" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -14422,11 +14413,11 @@
       </c>
       <c r="J267" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K267" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -14460,11 +14451,11 @@
       </c>
       <c r="J268" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K268" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -14498,11 +14489,11 @@
       </c>
       <c r="J269" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K269" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -14536,11 +14527,11 @@
       </c>
       <c r="J270" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K270" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -14574,11 +14565,11 @@
       </c>
       <c r="J271" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K271" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -14612,11 +14603,11 @@
       </c>
       <c r="J272" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K272" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -14650,11 +14641,11 @@
       </c>
       <c r="J273" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K273" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -14688,11 +14679,11 @@
       </c>
       <c r="J274" s="10">
         <f t="shared" ref="J274:K289" ca="1" si="20">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K274" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -14726,11 +14717,11 @@
       </c>
       <c r="J275" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K275" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -14764,11 +14755,11 @@
       </c>
       <c r="J276" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K276" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -14802,11 +14793,11 @@
       </c>
       <c r="J277" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K277" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -14840,11 +14831,11 @@
       </c>
       <c r="J278" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K278" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -14878,11 +14869,11 @@
       </c>
       <c r="J279" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K279" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -14916,11 +14907,11 @@
       </c>
       <c r="J280" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K280" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -14954,11 +14945,11 @@
       </c>
       <c r="J281" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K281" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -14992,11 +14983,11 @@
       </c>
       <c r="J282" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K282" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -15030,11 +15021,11 @@
       </c>
       <c r="J283" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K283" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -15068,11 +15059,11 @@
       </c>
       <c r="J284" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K284" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -15106,11 +15097,11 @@
       </c>
       <c r="J285" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K285" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -15144,11 +15135,11 @@
       </c>
       <c r="J286" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K286" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -15182,11 +15173,11 @@
       </c>
       <c r="J287" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K287" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -15220,11 +15211,11 @@
       </c>
       <c r="J288" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K288" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -15258,11 +15249,11 @@
       </c>
       <c r="J289" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K289" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -15296,11 +15287,11 @@
       </c>
       <c r="J290" s="10">
         <f t="shared" ref="J290:K301" ca="1" si="21">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K290" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -15334,11 +15325,11 @@
       </c>
       <c r="J291" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K291" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -15372,11 +15363,11 @@
       </c>
       <c r="J292" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K292" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -15410,11 +15401,11 @@
       </c>
       <c r="J293" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K293" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -15448,11 +15439,11 @@
       </c>
       <c r="J294" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K294" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -15486,11 +15477,11 @@
       </c>
       <c r="J295" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K295" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -15524,11 +15515,11 @@
       </c>
       <c r="J296" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K296" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -15562,11 +15553,11 @@
       </c>
       <c r="J297" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K297" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -15600,11 +15591,11 @@
       </c>
       <c r="J298" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K298" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -15638,11 +15629,11 @@
       </c>
       <c r="J299" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K299" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -15676,11 +15667,11 @@
       </c>
       <c r="J300" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K300" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -15714,16 +15705,16 @@
       </c>
       <c r="J301" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="K301" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K97" xr:uid="{8DC05FDD-0040-457B-BBCA-909598BB8C91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K97">
+    <sortState ref="A2:K97">
       <sortCondition ref="E1:E97"/>
     </sortState>
   </autoFilter>
@@ -15736,7 +15727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF83564-A9D6-45B5-88BE-205F51A81E9D}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15771,7 +15762,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D2" s="12">
         <v>44504</v>
@@ -15786,7 +15777,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C20" ca="1" si="0">TODAY()</f>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D3" s="12">
         <v>44504</v>
@@ -15801,7 +15792,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D4" s="12">
         <v>44504</v>
@@ -15816,7 +15807,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D5" s="12">
         <v>44504</v>
@@ -15831,7 +15822,7 @@
       </c>
       <c r="C6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D6" s="12">
         <v>44504</v>
@@ -15846,7 +15837,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D7" s="12">
         <v>44504</v>
@@ -15861,7 +15852,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D8" s="12">
         <v>44504</v>
@@ -15876,7 +15867,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D9" s="12">
         <v>44504</v>
@@ -15891,7 +15882,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D10" s="12">
         <v>44504</v>
@@ -15906,7 +15897,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D11" s="12">
         <v>44504</v>
@@ -15921,7 +15912,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D12" s="12">
         <v>44504</v>
@@ -15936,7 +15927,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D13" s="12">
         <v>44504</v>
@@ -15951,7 +15942,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D14" s="12">
         <v>44504</v>
@@ -15966,7 +15957,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D15" s="12">
         <v>44504</v>
@@ -15981,7 +15972,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D16" s="12">
         <v>44504</v>
@@ -15996,7 +15987,7 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D17" s="12">
         <v>44504</v>
@@ -16011,7 +16002,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D18" s="12">
         <v>44504</v>
@@ -16026,7 +16017,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D19" s="12">
         <v>44504</v>
@@ -16041,7 +16032,7 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44663</v>
       </c>
       <c r="D20" s="12">
         <v>44504</v>
